--- a/data/controles_results/difmedias_dep_vars_tot.xlsx
+++ b/data/controles_results/difmedias_dep_vars_tot.xlsx
@@ -102,7 +102,7 @@
     <t>(0.008)</t>
   </si>
   <si>
-    <t>0.279</t>
+    <t>0.280</t>
   </si>
   <si>
     <t>0.003</t>
